--- a/DBMS4123_F17_ProjectTimeline.xlsx
+++ b/DBMS4123_F17_ProjectTimeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12144" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Activity</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>Login Screen</t>
+  </si>
+  <si>
+    <t>Columns should have correct titles, be in order, and cells of a table should be editable.</t>
+  </si>
+  <si>
+    <t>ContributionFrame Ver 2</t>
+  </si>
+  <si>
+    <t>DonorFrame Ver 2</t>
+  </si>
+  <si>
+    <t>FundFrame Ver 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the 4 parameters for making a DB connection (using constructor in DBConnection), establish the connection, and pass the connection object as a parameter to the ContributionFrame, DonorFrame, and FundFrame.  Window should be centered.  Default first 2 fields to "griffincomplaints.xyz" and "money".  Place Focus on database name field.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table reflects contents of DB and is sortable, editable.  Text fields are laid out nicely in the correct order, default if applicable, and combo boxes are appropriately filled.  </t>
   </si>
 </sst>
 </file>
@@ -651,94 +669,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43045</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43046</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43047</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43048</c:v>
+                  <c:v>43051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43049</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43050</c:v>
+                  <c:v>43053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43051</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43052</c:v>
+                  <c:v>43055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43053</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43054</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43055</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43056</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43057</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43058</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43059</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43060</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43061</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43062</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43063</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43064</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43065</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43066</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43067</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43068</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43069</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43070</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43071</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43072</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43073</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43074</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,10 +852,10 @@
                   <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +1005,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -1051,94 +1069,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43045</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43046</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43047</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43048</c:v>
+                  <c:v>43051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43049</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43050</c:v>
+                  <c:v>43053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43051</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43052</c:v>
+                  <c:v>43055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43053</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43054</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43055</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43056</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43057</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43058</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43059</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43060</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43061</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43062</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43063</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43064</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43065</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43066</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43067</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43068</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43069</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43070</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43071</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43072</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43073</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43074</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,7 +1174,7 @@
                   <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1258,7 +1276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FUNDTABLEMODEL</c:v>
+                  <c:v>REPORT FRAME VER1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1309,10 +1327,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1451,94 +1469,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43045</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43046</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43047</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43048</c:v>
+                  <c:v>43051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43049</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43050</c:v>
+                  <c:v>43053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43051</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43052</c:v>
+                  <c:v>43055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43053</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43054</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43055</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43056</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43057</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43058</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43059</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43060</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43061</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43062</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43063</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43064</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43065</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43066</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43067</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43068</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43069</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43070</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43071</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43072</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43073</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43074</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,7 +1574,7 @@
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1658,7 +1676,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DONORTABLEMODEL</c:v>
+                  <c:v>SPLASH SCREEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1712,10 +1730,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1854,94 +1872,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43045</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43046</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43047</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43048</c:v>
+                  <c:v>43051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43049</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43050</c:v>
+                  <c:v>43053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43051</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43052</c:v>
+                  <c:v>43055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43053</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43054</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43055</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43056</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43057</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43058</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43059</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43060</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43061</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43062</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43063</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43064</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43065</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43066</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43067</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43068</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43069</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43070</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43071</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43072</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43073</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43074</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +1977,7 @@
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2061,7 +2079,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CONTRIBUTIONTABLEMODEL</c:v>
+                  <c:v>LOGIN SCREEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2112,10 +2130,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2254,94 +2272,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43045</c:v>
+                  <c:v>43048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43046</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43047</c:v>
+                  <c:v>43050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43048</c:v>
+                  <c:v>43051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43049</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43050</c:v>
+                  <c:v>43053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43051</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43052</c:v>
+                  <c:v>43055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43053</c:v>
+                  <c:v>43056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43054</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43055</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43056</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43057</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43058</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43059</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43060</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43061</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43062</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43063</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43064</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43065</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43066</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43067</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43068</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43069</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43070</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43071</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43072</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43073</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43074</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,7 +2479,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REPORT FRAME VER1</c:v>
+                  <c:v>CONTRIBUTIONFRAME VER 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2762,7 +2780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPLASH SCREEN</c:v>
+                  <c:v>DONORFRAME VER 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,7 +3081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LOGIN SCREEN</c:v>
+                  <c:v>FUNDFRAME VER 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3277,13 +3295,13 @@
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3433,7 +3451,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3442,7 +3460,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3581,13 +3599,13 @@
                   <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3734,7 +3752,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -3743,7 +3761,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3850,7 +3868,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -4043,13 +4061,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -4173,13 +4191,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.5</c:v>
@@ -4335,7 +4353,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -4344,7 +4362,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
@@ -4430,7 +4448,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000002-3C45-4356-8C57-2D437D471A27}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4609,7 +4627,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>06</c:v>
+                      <c:v>09</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4625,12 +4643,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C5F71466-AA42-446D-9F17-77CDEA7C7CFF}</c15:txfldGUID>
+                      <c15:txfldGUID>{5B4A6AA7-4D69-4360-B2E2-14A98A2DD8DB}</c15:txfldGUID>
                       <c15:f>calcs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>06</c:v>
+                          <c:v>09</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4650,7 +4668,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>07</c:v>
+                      <c:v>10</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4666,12 +4684,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F785BED8-87B4-4F66-8083-8168BB1233D7}</c15:txfldGUID>
+                      <c15:txfldGUID>{B1748E9C-17DD-486D-86FF-7E6F27761A6C}</c15:txfldGUID>
                       <c15:f>calcs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>07</c:v>
+                          <c:v>10</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4691,7 +4709,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>08</c:v>
+                      <c:v>11</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4707,12 +4725,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3F3C47CC-58EE-4A37-A1D8-2E8C9716882D}</c15:txfldGUID>
+                      <c15:txfldGUID>{75DF2366-24E4-4B59-9FBD-9EF31A514B9E}</c15:txfldGUID>
                       <c15:f>calcs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>08</c:v>
+                          <c:v>11</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4732,7 +4750,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>09</c:v>
+                      <c:v>12</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4748,12 +4766,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{342268DF-152F-4739-BF21-2C1EEDE37188}</c15:txfldGUID>
+                      <c15:txfldGUID>{C543E59A-2FD1-4C5C-8EA4-A7049A28FF2C}</c15:txfldGUID>
                       <c15:f>calcs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>09</c:v>
+                          <c:v>12</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4773,7 +4791,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>10</c:v>
+                      <c:v>13</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4789,12 +4807,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C6076377-41B7-42DF-BA31-2293BC0A0ECB}</c15:txfldGUID>
+                      <c15:txfldGUID>{D212F71D-4E8D-446A-BAB3-CC082AB98C54}</c15:txfldGUID>
                       <c15:f>calcs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>10</c:v>
+                          <c:v>13</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4814,7 +4832,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>11</c:v>
+                      <c:v>14</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4830,12 +4848,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A9F25A22-134A-44B2-87EC-430701667F03}</c15:txfldGUID>
+                      <c15:txfldGUID>{4838E25B-64A3-41A2-A221-CD8F3EB877F1}</c15:txfldGUID>
                       <c15:f>calcs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>11</c:v>
+                          <c:v>14</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4855,7 +4873,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>12</c:v>
+                      <c:v>15</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4871,12 +4889,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA6A7707-4A8D-4DB7-B27F-05F8291DBA60}</c15:txfldGUID>
+                      <c15:txfldGUID>{F963B0BE-E4E2-401B-A89B-E3AC69B2BCF2}</c15:txfldGUID>
                       <c15:f>calcs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>12</c:v>
+                          <c:v>15</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4896,7 +4914,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>13</c:v>
+                      <c:v>16</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4912,12 +4930,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{645D9FA5-179D-43BA-ACEC-88ECEB023FEB}</c15:txfldGUID>
+                      <c15:txfldGUID>{A7EAF802-E4E2-44D2-ABE9-6294C739FC3D}</c15:txfldGUID>
                       <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>16</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4937,7 +4955,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>14</c:v>
+                      <c:v>17</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4953,12 +4971,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{660B5B90-89FA-45E2-BD31-01D0C2BF27FD}</c15:txfldGUID>
+                      <c15:txfldGUID>{C6C572E7-3DF7-468F-99C6-B1451835499A}</c15:txfldGUID>
                       <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>14</c:v>
+                          <c:v>17</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4978,7 +4996,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>15</c:v>
+                      <c:v>18</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4994,12 +5012,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E980064B-185D-4539-9AAD-C83588838BA0}</c15:txfldGUID>
+                      <c15:txfldGUID>{D7100A76-40E1-4D06-A96E-8096A91E0312}</c15:txfldGUID>
                       <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
+                          <c:v>18</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5019,7 +5037,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>16</c:v>
+                      <c:v>19</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5035,12 +5053,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E38B476A-6DED-45E5-9421-DC5CE9279856}</c15:txfldGUID>
+                      <c15:txfldGUID>{A670F00B-72A2-44B1-B53A-25E093A14987}</c15:txfldGUID>
                       <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>16</c:v>
+                          <c:v>19</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5060,7 +5078,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>17</c:v>
+                      <c:v>20</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5076,12 +5094,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F32D0AA7-2296-48D9-8555-840FA027DAC0}</c15:txfldGUID>
+                      <c15:txfldGUID>{9EBD6B48-E261-452A-8DEC-3BB7EB0247EA}</c15:txfldGUID>
                       <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>17</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5101,7 +5119,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>18</c:v>
+                      <c:v>21</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5117,12 +5135,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0445270E-F7BB-4641-B156-861B86FF45CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{946665DC-91A8-4BD4-9590-E560698966AD}</c15:txfldGUID>
                       <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>18</c:v>
+                          <c:v>21</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5142,7 +5160,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>19</c:v>
+                      <c:v>22</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5158,12 +5176,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{55E8F2B1-7711-4F35-8CDB-62F84B928277}</c15:txfldGUID>
+                      <c15:txfldGUID>{EC09E76E-5C8E-40D8-A77B-972024AF1F64}</c15:txfldGUID>
                       <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>19</c:v>
+                          <c:v>22</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5183,7 +5201,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>20</c:v>
+                      <c:v>23</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5199,12 +5217,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7D873F06-2DD4-4F28-B6A3-6F2D82DB1F29}</c15:txfldGUID>
+                      <c15:txfldGUID>{0797DDC9-7674-45E6-BCD1-AA775AC79AB1}</c15:txfldGUID>
                       <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>20</c:v>
+                          <c:v>23</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5224,7 +5242,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>21</c:v>
+                      <c:v>24</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5240,12 +5258,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CEDC052B-4579-4BEA-A32E-DC44D609257A}</c15:txfldGUID>
+                      <c15:txfldGUID>{E78269FB-D37B-4789-907D-310451850C5B}</c15:txfldGUID>
                       <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>21</c:v>
+                          <c:v>24</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5265,7 +5283,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>22</c:v>
+                      <c:v>25</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5281,12 +5299,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{76375826-3610-4F45-BC23-559E489F1561}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9D495E5-F1F7-4473-8E09-D3BBE6791CE2}</c15:txfldGUID>
                       <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>22</c:v>
+                          <c:v>25</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5306,7 +5324,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>23</c:v>
+                      <c:v>26</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5322,12 +5340,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{49A21FA0-63FB-41EA-9BF2-F82276F1D3C4}</c15:txfldGUID>
+                      <c15:txfldGUID>{A1FF2B3F-C9A3-4FB7-AE64-0EE0F911AE17}</c15:txfldGUID>
                       <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>23</c:v>
+                          <c:v>26</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5347,7 +5365,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>24</c:v>
+                      <c:v>27</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5363,12 +5381,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BD1DE30B-593A-4152-A679-920CD2C2C296}</c15:txfldGUID>
+                      <c15:txfldGUID>{F3ABEAC3-720A-4B31-9699-5D79D13BDB76}</c15:txfldGUID>
                       <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>24</c:v>
+                          <c:v>27</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5388,7 +5406,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>25</c:v>
+                      <c:v>28</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5404,12 +5422,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B941F7F5-E6A1-4F78-8F39-1EA77599A77A}</c15:txfldGUID>
+                      <c15:txfldGUID>{BF60BB52-7EB3-42E8-86CE-CE19EC9EE9D4}</c15:txfldGUID>
                       <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>25</c:v>
+                          <c:v>28</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5429,7 +5447,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>26</c:v>
+                      <c:v>29</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5445,12 +5463,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{01EEABA2-36AF-4F9B-B305-3DB96ACE071A}</c15:txfldGUID>
+                      <c15:txfldGUID>{0A19ED4E-8954-4FEE-A2F9-2F66511962AE}</c15:txfldGUID>
                       <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>26</c:v>
+                          <c:v>29</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5470,7 +5488,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>27</c:v>
+                      <c:v>30</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5486,12 +5504,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{03DD2C46-F597-4E06-A88B-CBBC18749B6D}</c15:txfldGUID>
+                      <c15:txfldGUID>{6D36ADA1-279E-4B08-A62B-9BA5F6A0CAE0}</c15:txfldGUID>
                       <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>27</c:v>
+                          <c:v>30</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5511,7 +5529,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>28</c:v>
+                      <c:v>01</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5527,12 +5545,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9062BC22-D0AF-4F8B-B2B1-7B2935FA586E}</c15:txfldGUID>
+                      <c15:txfldGUID>{81CD2152-E9C3-45C6-86CA-2FCE34D196C6}</c15:txfldGUID>
                       <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>28</c:v>
+                          <c:v>01</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5552,7 +5570,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>29</c:v>
+                      <c:v>02</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5568,12 +5586,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0DA28E56-3124-4425-8D6C-521AF891BE67}</c15:txfldGUID>
+                      <c15:txfldGUID>{6564B571-633C-413E-BA9A-AA00681DB288}</c15:txfldGUID>
                       <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>29</c:v>
+                          <c:v>02</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5593,7 +5611,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>30</c:v>
+                      <c:v>03</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5609,12 +5627,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1A294624-7557-4D34-BBFB-24789EEB5D1A}</c15:txfldGUID>
+                      <c15:txfldGUID>{20DD408C-54AD-4539-818A-1769AEDD2732}</c15:txfldGUID>
                       <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>30</c:v>
+                          <c:v>03</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5634,7 +5652,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>01</c:v>
+                      <c:v>04</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5650,12 +5668,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A68951B-EA7A-455D-B011-7AA829831270}</c15:txfldGUID>
+                      <c15:txfldGUID>{44F10868-7140-44BD-9D6C-05BEF7200900}</c15:txfldGUID>
                       <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>01</c:v>
+                          <c:v>04</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5675,7 +5693,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>02</c:v>
+                      <c:v>05</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5691,12 +5709,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{56A3F3A3-C03A-44D0-8EFC-DC7267E22132}</c15:txfldGUID>
+                      <c15:txfldGUID>{062D86A1-327F-4C2E-BC3E-AB8341AC2A58}</c15:txfldGUID>
                       <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>02</c:v>
+                          <c:v>05</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5716,7 +5734,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>03</c:v>
+                      <c:v>06</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5732,12 +5750,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AB4762E6-5446-4210-A9FC-82CDCF942ABE}</c15:txfldGUID>
+                      <c15:txfldGUID>{015694DA-93F0-4746-9A91-876A9B2CFC03}</c15:txfldGUID>
                       <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>03</c:v>
+                          <c:v>06</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5757,7 +5775,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>04</c:v>
+                      <c:v>07</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5773,12 +5791,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3FCFCB86-9B43-4AA5-8FF3-FE4B3187ECEB}</c15:txfldGUID>
+                      <c15:txfldGUID>{899DC65E-FB32-4739-A8CB-8AE4EBC4230D}</c15:txfldGUID>
                       <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>04</c:v>
+                          <c:v>07</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5798,7 +5816,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>05</c:v>
+                      <c:v>08</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5814,12 +5832,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0D8225DC-2E85-4368-8C8C-901CD88A5061}</c15:txfldGUID>
+                      <c15:txfldGUID>{C6FA56D9-9BDE-48AF-9CB7-6B9222826DDD}</c15:txfldGUID>
                       <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>05</c:v>
+                          <c:v>08</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5991,7 +6009,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MON</c:v>
+                      <c:v>THU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6007,12 +6025,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CE450875-D4CF-4DF4-B5DD-E79A9140D82B}</c15:txfldGUID>
+                      <c15:txfldGUID>{0DB3879F-941A-49D3-8332-CB4B0B1FF632}</c15:txfldGUID>
                       <c15:f>calcs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MON</c:v>
+                          <c:v>THU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6032,7 +6050,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>TUE</c:v>
+                      <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6048,12 +6066,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D4F9CF42-A4B5-4825-91E6-22D37406496A}</c15:txfldGUID>
+                      <c15:txfldGUID>{18508D0E-9E30-4311-9DEC-B5F01FB5F48D}</c15:txfldGUID>
                       <c15:f>calcs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>TUE</c:v>
+                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6073,7 +6091,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>WED</c:v>
+                      <c:v>SAT</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6089,12 +6107,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3B6C50B2-D29A-4D7B-BD8C-D914B2D35895}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9240129-C0B7-44D3-8A11-B6A88D4B14D9}</c15:txfldGUID>
                       <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>WED</c:v>
+                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6114,7 +6132,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>THU</c:v>
+                      <c:v>SUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6130,12 +6148,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{893E4487-4733-4AF8-9E66-23F970ADCB5A}</c15:txfldGUID>
+                      <c15:txfldGUID>{3C65F795-9291-46AB-A267-3E50C6A836A6}</c15:txfldGUID>
                       <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>THU</c:v>
+                          <c:v>SUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6155,7 +6173,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>FRI</c:v>
+                      <c:v>MON</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6171,12 +6189,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9DC2B68C-C6C5-4010-A230-DADCEA4EE712}</c15:txfldGUID>
+                      <c15:txfldGUID>{D3343A46-58DF-4C31-BF19-BDBE2EC30BF1}</c15:txfldGUID>
                       <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>FRI</c:v>
+                          <c:v>MON</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6196,7 +6214,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAT</c:v>
+                      <c:v>TUE</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6212,12 +6230,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CB220AFF-E9FC-4146-89D0-5FE5F1FCB707}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9E8FAA3-0801-47B3-AC0D-E8B19D20DA80}</c15:txfldGUID>
                       <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAT</c:v>
+                          <c:v>TUE</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6237,7 +6255,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SUN</c:v>
+                      <c:v>WED</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6253,12 +6271,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A50849DE-F181-4EE3-AA70-D81E2CC5058A}</c15:txfldGUID>
+                      <c15:txfldGUID>{3C8A7ACE-450E-48E0-88D1-59008ACBE4CE}</c15:txfldGUID>
                       <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SUN</c:v>
+                          <c:v>WED</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6278,7 +6296,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MON</c:v>
+                      <c:v>THU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6294,12 +6312,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8E0F6012-C7B0-4A52-9072-BBDB9BAAC2CE}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9C90586-1245-4005-89C3-A507417FCF3E}</c15:txfldGUID>
                       <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MON</c:v>
+                          <c:v>THU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6319,7 +6337,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>TUE</c:v>
+                      <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6335,12 +6353,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1FAE0339-375F-4638-8A19-2BBD93987763}</c15:txfldGUID>
+                      <c15:txfldGUID>{3C6C8ED6-2FC6-4969-9FA8-10383261A71D}</c15:txfldGUID>
                       <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>TUE</c:v>
+                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6360,7 +6378,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>WED</c:v>
+                      <c:v>SAT</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6376,12 +6394,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D7B85AD0-8A77-4987-AF24-9DEEDBBF1A63}</c15:txfldGUID>
+                      <c15:txfldGUID>{F95EF610-70A5-4C04-A605-A19C985EDA59}</c15:txfldGUID>
                       <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>WED</c:v>
+                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6401,7 +6419,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>THU</c:v>
+                      <c:v>SUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6417,12 +6435,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E40E458-EB59-4FD6-81CC-899166BA06CB}</c15:txfldGUID>
+                      <c15:txfldGUID>{799AEB25-E673-4523-B4CD-3FFFB15D8157}</c15:txfldGUID>
                       <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>THU</c:v>
+                          <c:v>SUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6442,7 +6460,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>FRI</c:v>
+                      <c:v>MON</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6458,12 +6476,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{85D3BA9F-8F47-4297-8919-58D349D520F1}</c15:txfldGUID>
+                      <c15:txfldGUID>{03D991EF-45C1-46B7-861B-158C1AD8DADB}</c15:txfldGUID>
                       <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>FRI</c:v>
+                          <c:v>MON</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6483,7 +6501,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAT</c:v>
+                      <c:v>TUE</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6499,12 +6517,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{17E5F352-A346-4E6D-B2B4-C7822D7AD47C}</c15:txfldGUID>
+                      <c15:txfldGUID>{8C325122-AE80-4B47-BCF9-A370989203CE}</c15:txfldGUID>
                       <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAT</c:v>
+                          <c:v>TUE</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6524,7 +6542,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SUN</c:v>
+                      <c:v>WED</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6540,12 +6558,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{35551442-49B0-4667-B388-200A9837D95B}</c15:txfldGUID>
+                      <c15:txfldGUID>{06F760E1-FFF1-49B9-86BF-6A0229DEC519}</c15:txfldGUID>
                       <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SUN</c:v>
+                          <c:v>WED</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6565,7 +6583,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MON</c:v>
+                      <c:v>THU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6581,12 +6599,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{58FEC892-FB6B-4EF1-AA2F-2FC6CBA31677}</c15:txfldGUID>
+                      <c15:txfldGUID>{A8F241CA-30AF-4EC8-A9EF-35A0BED1B981}</c15:txfldGUID>
                       <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MON</c:v>
+                          <c:v>THU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6606,7 +6624,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>TUE</c:v>
+                      <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6622,12 +6640,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2726B7FC-40C0-4E4D-8F1C-5FE463B6D6FB}</c15:txfldGUID>
+                      <c15:txfldGUID>{21633D48-8F51-4760-9E2F-9CC5C39955EB}</c15:txfldGUID>
                       <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>TUE</c:v>
+                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6647,7 +6665,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>WED</c:v>
+                      <c:v>SAT</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6663,12 +6681,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5045C03C-F621-4958-8A57-6FF4DD172DAC}</c15:txfldGUID>
+                      <c15:txfldGUID>{BF242E7E-7C66-4758-ADB2-693EBF82E7FA}</c15:txfldGUID>
                       <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>WED</c:v>
+                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6688,7 +6706,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>THU</c:v>
+                      <c:v>SUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6704,12 +6722,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{127B46A4-35F5-4862-A6EE-70678B123C35}</c15:txfldGUID>
+                      <c15:txfldGUID>{B261D3ED-3B6D-43EA-B4B5-7EF6A836FAAC}</c15:txfldGUID>
                       <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>THU</c:v>
+                          <c:v>SUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6729,7 +6747,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>FRI</c:v>
+                      <c:v>MON</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6745,12 +6763,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B2D6D1C7-F916-4399-AE20-03E38E3B41D1}</c15:txfldGUID>
+                      <c15:txfldGUID>{995797E8-C714-4350-9C0C-042D5B52B939}</c15:txfldGUID>
                       <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>FRI</c:v>
+                          <c:v>MON</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6770,7 +6788,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAT</c:v>
+                      <c:v>TUE</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6786,12 +6804,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6C522EE1-0548-4DDF-B3CE-290D1634C809}</c15:txfldGUID>
+                      <c15:txfldGUID>{2662FB02-104D-4B35-A3F4-744D492DFE7E}</c15:txfldGUID>
                       <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAT</c:v>
+                          <c:v>TUE</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6811,7 +6829,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SUN</c:v>
+                      <c:v>WED</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6827,12 +6845,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C5CE82D-4899-4CEE-8A13-088AD3473D9A}</c15:txfldGUID>
+                      <c15:txfldGUID>{3835B11E-CEEE-49B4-A518-ECFCCA50BE3D}</c15:txfldGUID>
                       <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SUN</c:v>
+                          <c:v>WED</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6852,7 +6870,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MON</c:v>
+                      <c:v>THU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6868,12 +6886,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{35318800-D1AC-48CF-BFB0-CE24AB7A1573}</c15:txfldGUID>
+                      <c15:txfldGUID>{74852AD4-8AE1-4D41-95AA-7A5A8842B66A}</c15:txfldGUID>
                       <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MON</c:v>
+                          <c:v>THU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6893,7 +6911,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>TUE</c:v>
+                      <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6909,12 +6927,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9A2ED7F0-8F1E-4D97-BE12-C7C9F06EB464}</c15:txfldGUID>
+                      <c15:txfldGUID>{A7778912-720C-4959-A9C2-66AE26D4258C}</c15:txfldGUID>
                       <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>TUE</c:v>
+                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6934,7 +6952,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>WED</c:v>
+                      <c:v>SAT</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6950,12 +6968,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E812FD91-F846-42BB-B08E-8EF8DCA054FB}</c15:txfldGUID>
+                      <c15:txfldGUID>{436884F2-2D7D-49BF-B42A-97129AC8D0AF}</c15:txfldGUID>
                       <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>WED</c:v>
+                          <c:v>SAT</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6975,7 +6993,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>THU</c:v>
+                      <c:v>SUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6991,12 +7009,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E2889F5-0FC3-4290-803D-CDA75057AD33}</c15:txfldGUID>
+                      <c15:txfldGUID>{0C111E1B-0BAB-4B86-8556-1869F12A891F}</c15:txfldGUID>
                       <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>THU</c:v>
+                          <c:v>SUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7016,7 +7034,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>FRI</c:v>
+                      <c:v>MON</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7032,12 +7050,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BEAB6E69-BFB5-44AA-B282-A2B4A3F4BFFC}</c15:txfldGUID>
+                      <c15:txfldGUID>{9C216178-1DE0-47AE-B8D1-916190105649}</c15:txfldGUID>
                       <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>FRI</c:v>
+                          <c:v>MON</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7057,7 +7075,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAT</c:v>
+                      <c:v>TUE</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7073,12 +7091,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B5B62EA8-495D-4A2A-B37D-E409A8DD5485}</c15:txfldGUID>
+                      <c15:txfldGUID>{6932E28D-B03A-4353-AAFB-53C63F29261E}</c15:txfldGUID>
                       <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAT</c:v>
+                          <c:v>TUE</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7098,7 +7116,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SUN</c:v>
+                      <c:v>WED</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7114,12 +7132,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{304EE353-8CED-41EB-A6B8-137C5F3F55C4}</c15:txfldGUID>
+                      <c15:txfldGUID>{162E6E55-EB72-438D-B269-ECA301CBD83A}</c15:txfldGUID>
                       <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SUN</c:v>
+                          <c:v>WED</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7139,7 +7157,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MON</c:v>
+                      <c:v>THU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7155,12 +7173,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{48D86844-B182-4700-8325-AB40EE866F9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{CEB3CC9E-B8A9-419A-A163-B210BB9723BD}</c15:txfldGUID>
                       <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MON</c:v>
+                          <c:v>THU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7180,7 +7198,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>TUE</c:v>
+                      <c:v>FRI</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7196,12 +7214,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F668B245-473C-4026-AE83-31DAA55D63AA}</c15:txfldGUID>
+                      <c15:txfldGUID>{4242281D-C6D6-4243-B98A-576F2233B124}</c15:txfldGUID>
                       <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>TUE</c:v>
+                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7446,13 +7464,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -7576,13 +7594,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13</c:v>
@@ -7619,11 +7637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562907528"/>
-        <c:axId val="562907920"/>
+        <c:axId val="304809016"/>
+        <c:axId val="304809408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562907528"/>
+        <c:axId val="304809016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,14 +7664,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562907920"/>
+        <c:crossAx val="304809408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562907920"/>
+        <c:axId val="304809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7665,7 +7683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562907528"/>
+        <c:crossAx val="304809016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7700,7 +7718,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="500" noThreeD="1" page="7" val="14"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="500" noThreeD="1" page="7" val="17"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7767,10 +7785,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="295398" y="4728210"/>
-          <a:ext cx="9902067" cy="331306"/>
-          <a:chOff x="306828" y="4108040"/>
-          <a:chExt cx="8729080" cy="223554"/>
+          <a:off x="295398" y="4732020"/>
+          <a:ext cx="10060182" cy="331306"/>
+          <a:chOff x="306828" y="4108051"/>
+          <a:chExt cx="8729080" cy="223543"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7844,7 +7862,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="306828" y="4108040"/>
+                <a:off x="306828" y="4108051"/>
                 <a:ext cx="8729080" cy="163196"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7868,8 +7886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B5:G30" totalsRowShown="0">
-  <autoFilter ref="B5:G30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B5:G33" totalsRowShown="0">
+  <autoFilter ref="B5:G33"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -8127,25 +8145,25 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="5" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="80.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="5" width="18.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="80.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
@@ -8156,19 +8174,19 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="399.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="399.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="9.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
@@ -8178,7 +8196,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -8198,10 +8216,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f>ROW(B6)-calcs!$D$5</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -8214,10 +8232,10 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f>ROW(B7)-calcs!$D$5</f>
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
@@ -8234,10 +8252,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f>ROW(B8)-calcs!$D$5</f>
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
@@ -8253,10 +8271,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <f>ROW(B9)-calcs!$D$5</f>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>43</v>
@@ -8274,10 +8292,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f>ROW(B10)-calcs!$D$5</f>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>54</v>
@@ -8293,10 +8311,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f>ROW(B11)-calcs!$D$5</f>
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>55</v>
@@ -8312,10 +8330,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f>ROW(B12)-calcs!$D$5</f>
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>56</v>
@@ -8331,10 +8349,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f>ROW(B13)-calcs!$D$5</f>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>28</v>
@@ -8350,10 +8368,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f>ROW(B14)-calcs!$D$5</f>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>44</v>
@@ -8368,10 +8386,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>ROW(B15)-calcs!$D$5</f>
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>45</v>
@@ -8389,10 +8407,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <f>ROW(B16)-calcs!$D$5</f>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>46</v>
@@ -8410,10 +8428,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f>ROW(B17)-calcs!$D$5</f>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>47</v>
@@ -8431,10 +8449,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f>ROW(B18)-calcs!$D$5</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -8450,10 +8468,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f>ROW(B19)-calcs!$D$5</f>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
@@ -8464,15 +8482,17 @@
       <c r="E19" s="8">
         <v>43047</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G19" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>ROW(B20)-calcs!$D$5</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
@@ -8483,15 +8503,17 @@
       <c r="E20" s="8">
         <v>43047</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f>ROW(B21)-calcs!$D$5</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>26</v>
@@ -8502,15 +8524,17 @@
       <c r="E21" s="8">
         <v>43047</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f>ROW(B22)-calcs!$D$5</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>57</v>
@@ -8526,10 +8550,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f>ROW(B23)-calcs!$D$5</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>60</v>
@@ -8545,10 +8569,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f>ROW(B24)-calcs!$D$5</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>61</v>
@@ -8559,120 +8583,185 @@
       <c r="E24" s="8">
         <v>43049</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="G24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f>ROW(B25)-calcs!$D$5</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8">
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="E25" s="8">
-        <v>43054</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>43052</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="G25" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f>ROW(B26)-calcs!$D$5</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D26" s="8">
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="E26" s="8">
-        <v>43054</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>43052</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="G26" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f>ROW(B27)-calcs!$D$5</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D27" s="8">
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="E27" s="8">
-        <v>43054</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>43052</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f>ROW(B28)-calcs!$D$5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D28" s="8">
-        <v>43031</v>
+        <v>43042</v>
       </c>
       <c r="E28" s="8">
-        <v>43061</v>
+        <v>43054</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>ROW(B29)-calcs!$D$5</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D29" s="8">
-        <v>43045</v>
+        <v>43042</v>
       </c>
       <c r="E29" s="8">
-        <v>43075</v>
+        <v>43054</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <f>ROW(B30)-calcs!$D$5</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="8">
+        <v>43042</v>
+      </c>
+      <c r="E30" s="8">
+        <v>43054</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <f>ROW(B31)-calcs!$D$5</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43031</v>
+      </c>
+      <c r="E31" s="8">
+        <v>43061</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <f>ROW(B32)-calcs!$D$5</f>
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8">
+        <v>43045</v>
+      </c>
+      <c r="E32" s="8">
+        <v>43075</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <f>ROW(B33)-calcs!$D$5</f>
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D33" s="8">
         <f>E6</f>
         <v>43075</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8694,13 +8783,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:colOff>297180</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>4286250</xdr:rowOff>
+                    <xdr:rowOff>4290060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>5372100</xdr:colOff>
+                    <xdr:colOff>5387340</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>4533900</xdr:rowOff>
                   </to>
@@ -8727,75 +8816,75 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="34" width="10.85546875" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" customWidth="1"/>
+    <col min="5" max="34" width="10.88671875" customWidth="1"/>
+    <col min="35" max="35" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43042</v>
+        <v>43049</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
         <f>ROWS(Activities[])</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>9</v>
       </c>
@@ -8804,7 +8893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
         <v>0</v>
@@ -8814,38 +8903,38 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="E13" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="E14" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Activities[Id],MATCH(1, ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
@@ -8856,7 +8945,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
@@ -8867,7 +8956,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>-4</v>
@@ -8877,7 +8966,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>-3</v>
@@ -8887,7 +8976,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E20">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>-2</v>
@@ -8897,7 +8986,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E21">
         <f t="array" ref="E21">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E20)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>-1</v>
@@ -8907,7 +8996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E22">
         <f t="array" ref="E22">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E21)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>0</v>
@@ -8917,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E23">
         <f t="array" ref="E23">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
         <v>1</v>
@@ -8927,24 +9016,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1">
         <f>StartDate+WindowOffset</f>
-        <v>43045</v>
+        <v>43048</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>1</v>
       </c>
@@ -8953,7 +9042,7 @@
         <v>43031</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -8961,7 +9050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -8976,130 +9065,130 @@
       </c>
       <c r="E31" s="1">
         <f>StartDateWindow</f>
-        <v>43045</v>
+        <v>43048</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>43046</v>
+        <v>43049</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>43047</v>
+        <v>43050</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>43048</v>
+        <v>43051</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>43050</v>
+        <v>43053</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>43051</v>
+        <v>43054</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>43052</v>
+        <v>43055</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>43053</v>
+        <v>43056</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>43054</v>
+        <v>43057</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>43055</v>
+        <v>43058</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>43057</v>
+        <v>43060</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>43058</v>
+        <v>43061</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>43060</v>
+        <v>43063</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>43061</v>
+        <v>43064</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>43062</v>
+        <v>43065</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>43063</v>
+        <v>43066</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>43064</v>
+        <v>43067</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>43065</v>
+        <v>43068</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>43068</v>
+        <v>43071</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>43069</v>
+        <v>43072</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>43072</v>
+        <v>43075</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>43073</v>
+        <v>43076</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>43075</v>
+        <v>43078</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11.3</v>
       </c>
@@ -9108,7 +9197,7 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C32,Activities[Id],0))</f>
@@ -9226,20 +9315,20 @@
         <f ca="1">GridCalc</f>
         <v>11.3</v>
       </c>
-      <c r="AG32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AH32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AI32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
+      <c r="AG32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>A32-1</f>
         <v>10.3</v>
@@ -9253,7 +9342,7 @@
       </c>
       <c r="D33" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C33,Activities[Id],0))</f>
-        <v>FundTableModel</v>
+        <v>Report Frame ver1</v>
       </c>
       <c r="E33">
         <f ca="1">GridCalc</f>
@@ -9263,9 +9352,9 @@
         <f ca="1">GridCalc</f>
         <v>10.3</v>
       </c>
-      <c r="G33">
-        <f ca="1">GridCalc</f>
-        <v>10.3</v>
+      <c r="G33" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="H33" t="e">
         <f ca="1">GridCalc</f>
@@ -9380,7 +9469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" ref="A34:A40" si="3">A33-1</f>
         <v>9.3000000000000007</v>
@@ -9394,7 +9483,7 @@
       </c>
       <c r="D34" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C34,Activities[Id],0))</f>
-        <v>DonorTableModel</v>
+        <v>Splash Screen</v>
       </c>
       <c r="E34">
         <f ca="1">GridCalc</f>
@@ -9404,9 +9493,9 @@
         <f ca="1">GridCalc</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="G34">
-        <f ca="1">GridCalc</f>
-        <v>9.3000000000000007</v>
+      <c r="G34" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="H34" t="e">
         <f ca="1">GridCalc</f>
@@ -9521,7 +9610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
@@ -9535,7 +9624,7 @@
       </c>
       <c r="D35" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>ContributionTableModel</v>
+        <v>Login Screen</v>
       </c>
       <c r="E35">
         <f ca="1">GridCalc</f>
@@ -9545,9 +9634,9 @@
         <f ca="1">GridCalc</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="G35">
-        <f ca="1">GridCalc</f>
-        <v>8.3000000000000007</v>
+      <c r="G35" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="H35" t="e">
         <f ca="1">GridCalc</f>
@@ -9662,7 +9751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>7.3000000000000007</v>
@@ -9676,7 +9765,7 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>Report Frame ver1</v>
+        <v>ContributionFrame Ver 2</v>
       </c>
       <c r="E36">
         <f ca="1">GridCalc</f>
@@ -9803,7 +9892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>6.3000000000000007</v>
@@ -9817,7 +9906,7 @@
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
-        <v>Splash Screen</v>
+        <v>DonorFrame Ver 2</v>
       </c>
       <c r="E37">
         <f ca="1">GridCalc</f>
@@ -9944,7 +10033,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>5.3000000000000007</v>
@@ -9958,7 +10047,7 @@
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
-        <v>Login Screen</v>
+        <v>FundFrame Ver 2</v>
       </c>
       <c r="E38">
         <f ca="1">GridCalc</f>
@@ -10085,7 +10174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>4.3000000000000007</v>
@@ -10129,17 +10218,17 @@
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="L39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="M39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="N39">
-        <f ca="1">GridCalc</f>
-        <v>4.3000000000000007</v>
+      <c r="L39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="O39" t="e">
         <f ca="1">GridCalc</f>
@@ -10226,7 +10315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>3.3000000000000007</v>
@@ -10270,17 +10359,17 @@
         <f ca="1">GridCalc</f>
         <v>3.3000000000000007</v>
       </c>
-      <c r="L40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="M40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="N40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
+      <c r="L40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="O40" t="e">
         <f ca="1">GridCalc</f>
@@ -10367,132 +10456,132 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>43045</v>
+        <v>43048</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>43046</v>
+        <v>43049</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>43047</v>
+        <v>43050</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>43048</v>
+        <v>43051</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>43050</v>
+        <v>43053</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>43051</v>
+        <v>43054</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>43052</v>
+        <v>43055</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>43053</v>
+        <v>43056</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>43054</v>
+        <v>43057</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>43055</v>
+        <v>43058</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>43057</v>
+        <v>43060</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>43058</v>
+        <v>43061</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>43060</v>
+        <v>43063</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>43061</v>
+        <v>43064</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>43062</v>
+        <v>43065</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>43063</v>
+        <v>43066</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>43064</v>
+        <v>43067</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>43065</v>
+        <v>43068</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>43068</v>
+        <v>43071</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>43069</v>
+        <v>43072</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>43072</v>
+        <v>43075</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>43073</v>
+        <v>43076</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>43074</v>
+        <v>43077</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C44">
         <f ca="1">C32</f>
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="D44" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C44,Activities[Id],0)))</f>
@@ -10606,9 +10695,9 @@
         <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AF44" t="e">
+      <c r="AF44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>11.3</v>
       </c>
       <c r="AG44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10619,27 +10708,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C45">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
         <v>-6</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C45,Activities[Id],0)))</f>
-        <v>FUNDTABLEMODEL</v>
+        <v>REPORT FRAME VER1</v>
       </c>
       <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G45">
+      <c r="F45">
         <f t="shared" ca="1" si="7"/>
         <v>10.3</v>
       </c>
+      <c r="G45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
       <c r="H45" t="e">
         <f t="shared" ca="1" si="7"/>
         <v>#N/A</v>
@@ -10749,27 +10838,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
         <v>-5</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C46,Activities[Id],0)))</f>
-        <v>DONORTABLEMODEL</v>
+        <v>SPLASH SCREEN</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F46" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G46">
+      <c r="F46">
         <f t="shared" ca="1" si="8"/>
         <v>9.3000000000000007</v>
       </c>
+      <c r="G46" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#N/A</v>
+      </c>
       <c r="H46" t="e">
         <f t="shared" ca="1" si="8"/>
         <v>#N/A</v>
@@ -10879,27 +10968,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
         <v>-4</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>CONTRIBUTIONTABLEMODEL</v>
+        <v>LOGIN SCREEN</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G47">
+      <c r="F47">
         <f t="shared" ca="1" si="9"/>
         <v>8.3000000000000007</v>
       </c>
+      <c r="G47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
       <c r="H47" t="e">
         <f t="shared" ca="1" si="9"/>
         <v>#N/A</v>
@@ -11009,14 +11098,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
         <v>-3</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>REPORT FRAME VER1</v>
+        <v>CONTRIBUTIONFRAME VER 2</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -11139,14 +11228,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
         <v>-2</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C49,Activities[Id],0)))</f>
-        <v>SPLASH SCREEN</v>
+        <v>DONORFRAME VER 2</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11269,14 +11358,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
         <v>-1</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C50,Activities[Id],0)))</f>
-        <v>LOGIN SCREEN</v>
+        <v>FUNDFRAME VER 2</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11399,7 +11488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
@@ -11432,9 +11521,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="K51" t="e">
+      <c r="K51">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="L51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11444,9 +11533,9 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="O51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11529,7 +11618,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
@@ -11562,9 +11651,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="K52" t="e">
+      <c r="K52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="L52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11574,9 +11663,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="N52">
+      <c r="N52" t="e">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="O52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11659,129 +11748,129 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>43045</v>
+        <v>43048</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>43046</v>
+        <v>43049</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>43047</v>
+        <v>43050</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>43048</v>
+        <v>43051</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>43050</v>
+        <v>43053</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>43051</v>
+        <v>43054</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>43052</v>
+        <v>43055</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>43053</v>
+        <v>43056</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>43054</v>
+        <v>43057</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>43055</v>
+        <v>43058</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>43057</v>
+        <v>43060</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>43058</v>
+        <v>43061</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>43059</v>
+        <v>43062</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>43060</v>
+        <v>43063</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>43061</v>
+        <v>43064</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>43062</v>
+        <v>43065</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>43063</v>
+        <v>43066</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>43064</v>
+        <v>43067</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>43065</v>
+        <v>43068</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>43066</v>
+        <v>43069</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>43068</v>
+        <v>43071</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>43069</v>
+        <v>43072</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>43070</v>
+        <v>43073</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>43072</v>
+        <v>43075</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>43073</v>
+        <v>43076</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>43074</v>
+        <v>43077</v>
       </c>
     </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>11</v>
       </c>
@@ -11789,9 +11878,9 @@
         <f t="shared" ref="E56:AH56" ca="1" si="16">IF(E55=$D$3,5,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" t="e">
+      <c r="F56">
         <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="G56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -11906,7 +11995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D58" s="3">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
         <v>43040</v>
@@ -11999,17 +12088,17 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB58">
+        <v>#N/A</v>
+      </c>
+      <c r="AB58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC58">
+        <v>#N/A</v>
+      </c>
+      <c r="AC58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AD58" t="e">
         <f t="shared" si="17"/>
@@ -12032,7 +12121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D59" s="3" t="str">
         <f>TEXT(D58,"mmm yyyy") &amp; " - Top Band"</f>
         <v>Nov 2017 - Top Band</v>
@@ -12125,17 +12214,17 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="AB59">
+        <v>#N/A</v>
+      </c>
+      <c r="AB59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="AC59">
+        <v>#N/A</v>
+      </c>
+      <c r="AC59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AD59" t="e">
         <f t="shared" si="18"/>
@@ -12158,10 +12247,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D61" s="3">
         <f>EOMONTH(D58,0)+1</f>
         <v>43070</v>
@@ -12254,17 +12343,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AA61" t="e">
+      <c r="AA61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AB61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AC61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AD61">
         <f t="shared" si="19"/>
@@ -12287,7 +12376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D62" s="3" t="str">
         <f>TEXT(D61,"mmm yyyy") &amp; " - Top Band"</f>
         <v>Dec 2017 - Top Band</v>
@@ -12380,17 +12469,17 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="AA62" t="e">
+      <c r="AA62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB62" t="e">
+        <v>13</v>
+      </c>
+      <c r="AB62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC62" t="e">
+        <v>13</v>
+      </c>
+      <c r="AC62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AD62">
         <f t="shared" si="20"/>
@@ -12413,10 +12502,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:34" x14ac:dyDescent="0.3">
       <c r="D63" s="3"/>
     </row>
-    <row r="65" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D65" s="3">
         <f>D58+1</f>
         <v>43041</v>
@@ -12542,7 +12631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D66" s="3">
         <f>D61+1</f>
         <v>43071</v>
@@ -12639,9 +12728,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AB66" t="e">
+      <c r="AB66">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AC66" t="e">
         <f t="shared" si="21"/>
@@ -12651,9 +12740,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AE66">
+      <c r="AE66" t="e">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AF66" t="e">
         <f t="shared" si="21"/>
@@ -12668,7 +12757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>2.2999999999999998</v>
       </c>
@@ -12789,132 +12878,132 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>SAT</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SUN</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>MON</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>TUE</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>WED</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>THU</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>FRI</v>
       </c>
     </row>
-    <row r="71" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>1.3</v>
       </c>
@@ -13035,126 +13124,126 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="72" spans="4:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>06</v>
+        <v>09</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>07</v>
+        <v>10</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>11</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>12</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>01</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>02</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>03</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>04</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>05</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>06</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>07</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>08</v>
       </c>
     </row>
   </sheetData>

--- a/DBMS4123_F17_ProjectTimeline.xlsx
+++ b/DBMS4123_F17_ProjectTimeline.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Activity</t>
   </si>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t xml:space="preserve">Table reflects contents of DB and is sortable, editable.  Text fields are laid out nicely in the correct order, default if applicable, and combo boxes are appropriately filled.  </t>
+  </si>
+  <si>
+    <t>ContributionFrame Ver 3</t>
+  </si>
+  <si>
+    <t>DonorFrame Ver 3</t>
+  </si>
+  <si>
+    <t>FundFrame Ver 3</t>
+  </si>
+  <si>
+    <t>Default Fund field.  Initial focus on Envelope ID field (instead of date).  Edit Fund field.  Name field non-editable and non-focusable.  Populate fields when row is selected (after sorting). Length fund text field</t>
+  </si>
+  <si>
+    <t>Issues not fixed in Version 2.  Tab order.  Edit City field.  Prevent entry of &gt; 2 characters in State field.  When Add button is selected, last name is not being inserted correctly.  Clear text fields after an add.  Table needs scroll bar.</t>
+  </si>
+  <si>
+    <t>Clear fields after successful "Add".  Be able to just hit Enter key when any button has focus instead of having to use the mouse.</t>
+  </si>
+  <si>
+    <t>Formal Testing</t>
+  </si>
+  <si>
+    <t>Everyone</t>
   </si>
 </sst>
 </file>
@@ -669,94 +693,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43048</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43049</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43050</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43051</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43052</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43053</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43054</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43055</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43056</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43057</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43058</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43059</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43060</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43061</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43062</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43063</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43064</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43065</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43066</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43067</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43068</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43069</c:v>
+                  <c:v>43078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43070</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43071</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43072</c:v>
+                  <c:v>43081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43074</c:v>
+                  <c:v>43083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43075</c:v>
+                  <c:v>43084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43076</c:v>
+                  <c:v>43085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43077</c:v>
+                  <c:v>43086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,88 +792,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -876,7 +900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PROJECT START</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -913,6 +937,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1005,7 +1030,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -1069,94 +1094,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43048</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43049</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43050</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43051</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43052</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43053</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43054</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43055</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43056</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43057</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43058</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43059</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43060</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43061</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43062</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43063</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43064</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43065</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43066</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43067</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43068</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43069</c:v>
+                  <c:v>43078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43070</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43071</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43072</c:v>
+                  <c:v>43081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43074</c:v>
+                  <c:v>43083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43075</c:v>
+                  <c:v>43084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43076</c:v>
+                  <c:v>43085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43077</c:v>
+                  <c:v>43086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,55 +1199,55 @@
                   <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1276,7 +1301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>REPORT FRAME VER1</c:v>
+                  <c:v>PROJECT START</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1313,6 +1338,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1327,58 +1353,58 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -1469,94 +1495,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43048</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43049</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43050</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43051</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43052</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43053</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43054</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43055</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43056</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43057</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43058</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43059</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43060</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43061</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43062</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43063</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43064</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43065</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43066</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43067</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43068</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43069</c:v>
+                  <c:v>43078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43070</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43071</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43072</c:v>
+                  <c:v>43081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43074</c:v>
+                  <c:v>43083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43075</c:v>
+                  <c:v>43084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43076</c:v>
+                  <c:v>43085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43077</c:v>
+                  <c:v>43086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1600,7 @@
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1676,7 +1702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPLASH SCREEN</c:v>
+                  <c:v>CONTRIBUTIONFRAME VER 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1716,6 +1742,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1730,10 +1757,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1872,94 +1899,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43048</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43049</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43050</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43051</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43052</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43053</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43054</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43055</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43056</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43057</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43058</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43059</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43060</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43061</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43062</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43063</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43064</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43065</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43066</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43067</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43068</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43069</c:v>
+                  <c:v>43078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43070</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43071</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43072</c:v>
+                  <c:v>43081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43074</c:v>
+                  <c:v>43083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43075</c:v>
+                  <c:v>43084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43076</c:v>
+                  <c:v>43085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43077</c:v>
+                  <c:v>43086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +2004,7 @@
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2079,7 +2106,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LOGIN SCREEN</c:v>
+                  <c:v>DONORFRAME VER 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2116,6 +2143,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2130,10 +2158,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -2272,94 +2300,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>43048</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43049</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43050</c:v>
+                  <c:v>43059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43051</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43052</c:v>
+                  <c:v>43061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43053</c:v>
+                  <c:v>43062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43054</c:v>
+                  <c:v>43063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43055</c:v>
+                  <c:v>43064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43056</c:v>
+                  <c:v>43065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43057</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43058</c:v>
+                  <c:v>43067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43059</c:v>
+                  <c:v>43068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43060</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43061</c:v>
+                  <c:v>43070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43062</c:v>
+                  <c:v>43071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43063</c:v>
+                  <c:v>43072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43064</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43065</c:v>
+                  <c:v>43074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43066</c:v>
+                  <c:v>43075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43067</c:v>
+                  <c:v>43076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43068</c:v>
+                  <c:v>43077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43069</c:v>
+                  <c:v>43078</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43070</c:v>
+                  <c:v>43079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43071</c:v>
+                  <c:v>43080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43072</c:v>
+                  <c:v>43081</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43073</c:v>
+                  <c:v>43082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43074</c:v>
+                  <c:v>43083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43075</c:v>
+                  <c:v>43084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43076</c:v>
+                  <c:v>43085</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43077</c:v>
+                  <c:v>43086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,10 +2408,10 @@
                   <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2479,7 +2507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CONTRIBUTIONFRAME VER 2</c:v>
+                  <c:v>FUNDFRAME VER 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2516,6 +2544,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2533,13 +2562,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>7.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -2780,7 +2809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DONORFRAME VER 2</c:v>
+                  <c:v>REPORT BUTTONS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2817,6 +2846,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2988,46 +3018,46 @@
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3081,7 +3111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FUNDFRAME VER 2</c:v>
+                  <c:v>TESTING</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,6 +3148,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3141,49 +3172,49 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3274,52 +3305,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3382,7 +3413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD BUTTONS</c:v>
+                  <c:v>FORMAL TESTING</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3422,6 +3453,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3451,34 +3483,34 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
@@ -3578,61 +3610,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3686,7 +3718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DELETE BUTTONS</c:v>
+                  <c:v>PROJECT END</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3723,6 +3755,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3752,43 +3785,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>#N/A</c:v>
@@ -3868,7 +3901,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -4034,31 +4067,31 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -4164,31 +4197,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.5</c:v>
@@ -4273,6 +4306,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4326,7 +4360,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
@@ -4353,7 +4387,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>#N/A</c:v>
@@ -4621,9 +4655,913 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>calcs!$E$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>18</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{1BBA3109-78C0-447F-BE10-4F257A775D57}</c15:txfldGUID>
+                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>18</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>19</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{F73AF1CC-535E-4AE8-B76A-231379C499BB}</c15:txfldGUID>
+                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>19</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>20</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{9753643F-5755-40DE-8555-856297B49880}</c15:txfldGUID>
+                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>20</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>21</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{9B159ABD-0E9D-4729-801C-9AF87A227A12}</c15:txfldGUID>
+                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>21</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>22</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FB62C3B3-2018-494B-9B35-E8E05FF34301}</c15:txfldGUID>
+                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>22</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>23</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C2E4FAA4-053D-4784-8A41-128FB2E229AA}</c15:txfldGUID>
+                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>23</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>24</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{E5EC67E7-DCCB-401C-BCDD-D067870A84E2}</c15:txfldGUID>
+                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>24</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$L$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>25</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5A9B1120-0F4A-463B-BA74-7D72DD368F54}</c15:txfldGUID>
+                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>25</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$M$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>26</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A536F846-F5DE-4AD4-AEB7-001E64D2D934}</c15:txfldGUID>
+                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>26</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$N$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>27</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{76CC11F4-F2D7-4AFE-AFC5-75F2C6E28DD3}</c15:txfldGUID>
+                      <c15:f>calcs!$N$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>27</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$O$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>28</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{C93DCD7A-6433-466E-87E6-D1B780C75692}</c15:txfldGUID>
+                      <c15:f>calcs!$O$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>28</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$P$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>29</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{96983321-90A8-484C-B790-E269F5C15123}</c15:txfldGUID>
+                      <c15:f>calcs!$P$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>29</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Q$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>30</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{36DD83FC-93F7-4F3F-A464-1C23E6AA0082}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>30</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$R$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>01</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{8949A70F-3412-45AF-BB80-008FD4F5B112}</c15:txfldGUID>
+                      <c15:f>calcs!$R$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>01</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$S$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>02</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{048774D9-F0C9-43C4-AD2D-AA4D331D61C0}</c15:txfldGUID>
+                      <c15:f>calcs!$S$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>02</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$T$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>03</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FD973266-4375-4E68-A1B2-59FA265B8488}</c15:txfldGUID>
+                      <c15:f>calcs!$T$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>03</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$U$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>04</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{724DF470-9F2B-447D-B6A7-910FE4D4C505}</c15:txfldGUID>
+                      <c15:f>calcs!$U$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>04</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$V$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>05</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{FBA22391-B013-4983-9AB7-AE0F89E8C9F4}</c15:txfldGUID>
+                      <c15:f>calcs!$V$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>05</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$W$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>06</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{21CBD283-42EA-41CA-B550-F420F75A0634}</c15:txfldGUID>
+                      <c15:f>calcs!$W$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>06</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$X$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>07</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{A5729D54-60A2-48CB-925D-C4019C1D9D44}</c15:txfldGUID>
+                      <c15:f>calcs!$X$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>07</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Y$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>08</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{AC974977-A3F2-491A-92AF-02AACD36266B}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>08</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$Z$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4641,10 +5579,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5B4A6AA7-4D69-4360-B2E2-14A98A2DD8DB}</c15:txfldGUID>
-                      <c15:f>calcs!$E$72</c15:f>
+                      <c15:txfldGUID>{5150348A-1F34-496E-9B34-504F6066EAE7}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4656,15 +5595,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000002F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="22"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$72</c:f>
+                  <c:f>calcs!$AA$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4682,10 +5622,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B1748E9C-17DD-486D-86FF-7E6F27761A6C}</c15:txfldGUID>
-                      <c15:f>calcs!$F$72</c15:f>
+                      <c15:txfldGUID>{B18961B2-C7BA-471D-88B0-75C8CDADF711}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4697,15 +5638,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000030-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="23"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$72</c:f>
+                  <c:f>calcs!$AB$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4723,10 +5665,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75DF2366-24E4-4B59-9FBD-9EF31A514B9E}</c15:txfldGUID>
-                      <c15:f>calcs!$G$72</c15:f>
+                      <c15:txfldGUID>{D846E430-C507-4EFE-89F4-9A0D3D74DC01}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4738,15 +5681,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000031-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="24"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$72</c:f>
+                  <c:f>calcs!$AC$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4764,10 +5708,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C543E59A-2FD1-4C5C-8EA4-A7049A28FF2C}</c15:txfldGUID>
-                      <c15:f>calcs!$H$72</c15:f>
+                      <c15:txfldGUID>{69389309-7531-43D8-AC7C-56DB864DA29B}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4779,15 +5724,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000032-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="25"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$72</c:f>
+                  <c:f>calcs!$AD$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4805,10 +5751,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D212F71D-4E8D-446A-BAB3-CC082AB98C54}</c15:txfldGUID>
-                      <c15:f>calcs!$I$72</c15:f>
+                      <c15:txfldGUID>{5D534B3B-2BB3-42A1-BE2C-E8DE390AEAFC}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4820,15 +5767,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000033-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="26"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$72</c:f>
+                  <c:f>calcs!$AE$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4846,10 +5794,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4838E25B-64A3-41A2-A221-CD8F3EB877F1}</c15:txfldGUID>
-                      <c15:f>calcs!$J$72</c15:f>
+                      <c15:txfldGUID>{29A21F54-174E-45CB-9176-EADFFAFC9B56}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4861,15 +5810,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000034-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="27"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$72</c:f>
+                  <c:f>calcs!$AF$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4887,10 +5837,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F963B0BE-E4E2-401B-A89B-E3AC69B2BCF2}</c15:txfldGUID>
-                      <c15:f>calcs!$K$72</c15:f>
+                      <c15:txfldGUID>{C28A75E2-C5CE-4A5D-82DB-BB12FDC0D218}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4902,15 +5853,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000035-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="28"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$72</c:f>
+                  <c:f>calcs!$AG$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4928,10 +5880,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A7EAF802-E4E2-44D2-ABE9-6294C739FC3D}</c15:txfldGUID>
-                      <c15:f>calcs!$L$72</c15:f>
+                      <c15:txfldGUID>{0D617315-D4B0-4C96-8F3C-6ABD4B4AD33D}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -4943,15 +5896,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000036-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="29"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$72</c:f>
+                  <c:f>calcs!$AH$72</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -4969,875 +5923,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C6C572E7-3DF7-468F-99C6-B1451835499A}</c15:txfldGUID>
-                      <c15:f>calcs!$M$72</c15:f>
+                      <c15:txfldGUID>{094D183D-8F01-4113-8E46-C69A4AEAB74A}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>17</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$N$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>18</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D7100A76-40E1-4D06-A96E-8096A91E0312}</c15:txfldGUID>
-                      <c15:f>calcs!$N$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>18</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$O$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>19</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A670F00B-72A2-44B1-B53A-25E093A14987}</c15:txfldGUID>
-                      <c15:f>calcs!$O$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>19</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$P$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>20</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9EBD6B48-E261-452A-8DEC-3BB7EB0247EA}</c15:txfldGUID>
-                      <c15:f>calcs!$P$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>20</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Q$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>21</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{946665DC-91A8-4BD4-9590-E560698966AD}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>21</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$R$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>22</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EC09E76E-5C8E-40D8-A77B-972024AF1F64}</c15:txfldGUID>
-                      <c15:f>calcs!$R$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>22</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$S$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>23</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0797DDC9-7674-45E6-BCD1-AA775AC79AB1}</c15:txfldGUID>
-                      <c15:f>calcs!$S$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>23</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$T$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>24</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E78269FB-D37B-4789-907D-310451850C5B}</c15:txfldGUID>
-                      <c15:f>calcs!$T$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>24</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$U$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>25</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9D495E5-F1F7-4473-8E09-D3BBE6791CE2}</c15:txfldGUID>
-                      <c15:f>calcs!$U$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>25</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$V$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>26</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A1FF2B3F-C9A3-4FB7-AE64-0EE0F911AE17}</c15:txfldGUID>
-                      <c15:f>calcs!$V$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>26</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$W$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>27</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F3ABEAC3-720A-4B31-9699-5D79D13BDB76}</c15:txfldGUID>
-                      <c15:f>calcs!$W$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>27</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$X$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>28</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF60BB52-7EB3-42E8-86CE-CE19EC9EE9D4}</c15:txfldGUID>
-                      <c15:f>calcs!$X$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>28</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Y$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>29</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0A19ED4E-8954-4FEE-A2F9-2F66511962AE}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>29</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$Z$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>30</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D36ADA1-279E-4B08-A62B-9BA5F6A0CAE0}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>30</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AA$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>01</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{81CD2152-E9C3-45C6-86CA-2FCE34D196C6}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>01</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AB$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>02</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6564B571-633C-413E-BA9A-AA00681DB288}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>02</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AC$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>03</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{20DD408C-54AD-4539-818A-1769AEDD2732}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>03</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>04</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{44F10868-7140-44BD-9D6C-05BEF7200900}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>04</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>05</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{062D86A1-327F-4C2E-BC3E-AB8341AC2A58}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>05</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>06</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{015694DA-93F0-4746-9A91-876A9B2CFC03}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>06</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>07</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{899DC65E-FB32-4739-A8CB-8AE4EBC4230D}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>07</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>08</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C6FA56D9-9BDE-48AF-9CB7-6B9222826DDD}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>08</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6003,9 +6097,225 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>calcs!$E$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SAT</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{4A562B46-ADB9-4CE2-BEA7-47CB885AD70C}</c15:txfldGUID>
+                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SAT</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$F$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SUN</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{D3216889-7423-4716-A816-AD81EADC275B}</c15:txfldGUID>
+                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SUN</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$G$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>MON</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{5A4FDE33-58BD-48E1-BE32-FAB7CFF5A6DB}</c15:txfldGUID>
+                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>MON</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$H$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>TUE</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{1B335B1D-4A3C-422F-9C33-3358AB40B1C5}</c15:txfldGUID>
+                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>TUE</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$I$70</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>WED</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{2954DD28-9E38-4FB3-9B60-7FF9CF13662E}</c15:txfldGUID>
+                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>WED</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:strRef>
+                  <c:f>calcs!$J$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6023,10 +6333,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0DB3879F-941A-49D3-8332-CB4B0B1FF632}</c15:txfldGUID>
-                      <c15:f>calcs!$E$70</c15:f>
+                      <c15:txfldGUID>{37FA78B3-B2A7-4214-B674-20A20BC9A93C}</c15:txfldGUID>
+                      <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6038,15 +6349,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000003E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$F$70</c:f>
+                  <c:f>calcs!$K$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6064,10 +6376,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{18508D0E-9E30-4311-9DEC-B5F01FB5F48D}</c15:txfldGUID>
-                      <c15:f>calcs!$F$70</c15:f>
+                      <c15:txfldGUID>{93FBFEBB-2013-4BF8-971A-202CDDD90D46}</c15:txfldGUID>
+                      <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6079,15 +6392,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000003F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$G$70</c:f>
+                  <c:f>calcs!$L$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6105,10 +6419,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9240129-C0B7-44D3-8A11-B6A88D4B14D9}</c15:txfldGUID>
-                      <c15:f>calcs!$G$70</c15:f>
+                      <c15:txfldGUID>{971A4D88-85AF-48DE-A631-140A6D11CFAC}</c15:txfldGUID>
+                      <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6120,15 +6435,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000040-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$H$70</c:f>
+                  <c:f>calcs!$M$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6146,10 +6462,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C65F795-9291-46AB-A267-3E50C6A836A6}</c15:txfldGUID>
-                      <c15:f>calcs!$H$70</c15:f>
+                      <c15:txfldGUID>{BA0FE355-2B2C-4D42-9B11-52B67F7CCD45}</c15:txfldGUID>
+                      <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6161,15 +6478,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000041-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="9"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$I$70</c:f>
+                  <c:f>calcs!$N$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6187,10 +6505,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D3343A46-58DF-4C31-BF19-BDBE2EC30BF1}</c15:txfldGUID>
-                      <c15:f>calcs!$I$70</c15:f>
+                      <c15:txfldGUID>{054E6763-C6DD-45E8-BEC0-1DF4763A3D41}</c15:txfldGUID>
+                      <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6202,15 +6521,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000042-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="10"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$J$70</c:f>
+                  <c:f>calcs!$O$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6228,10 +6548,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9E8FAA3-0801-47B3-AC0D-E8B19D20DA80}</c15:txfldGUID>
-                      <c15:f>calcs!$J$70</c15:f>
+                      <c15:txfldGUID>{786BB492-7AC1-45FA-AD7F-F354EFF1E929}</c15:txfldGUID>
+                      <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6243,15 +6564,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000043-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$K$70</c:f>
+                  <c:f>calcs!$P$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6269,10 +6591,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C8A7ACE-450E-48E0-88D1-59008ACBE4CE}</c15:txfldGUID>
-                      <c15:f>calcs!$K$70</c15:f>
+                      <c15:txfldGUID>{0C6A07CA-AACE-4297-8FC8-7751B5E3A67F}</c15:txfldGUID>
+                      <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6284,15 +6607,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000044-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="12"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$L$70</c:f>
+                  <c:f>calcs!$Q$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6310,10 +6634,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9C90586-1245-4005-89C3-A507417FCF3E}</c15:txfldGUID>
-                      <c15:f>calcs!$L$70</c15:f>
+                      <c15:txfldGUID>{C1F175CA-AC3B-4DF3-B837-7849D82168BF}</c15:txfldGUID>
+                      <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6325,15 +6650,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000045-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="13"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$M$70</c:f>
+                  <c:f>calcs!$R$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6351,10 +6677,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C6C8ED6-2FC6-4969-9FA8-10383261A71D}</c15:txfldGUID>
-                      <c15:f>calcs!$M$70</c15:f>
+                      <c15:txfldGUID>{3FBB9B69-D235-4AFD-A0F0-59E634A4CD7D}</c15:txfldGUID>
+                      <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6366,15 +6693,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000041-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000046-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="14"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$N$70</c:f>
+                  <c:f>calcs!$S$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6392,10 +6720,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F95EF610-70A5-4C04-A605-A19C985EDA59}</c15:txfldGUID>
-                      <c15:f>calcs!$N$70</c15:f>
+                      <c15:txfldGUID>{1D68F6C2-4B42-4C38-B061-8EA9BF4D7D86}</c15:txfldGUID>
+                      <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6407,15 +6736,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000042-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000047-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="15"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$O$70</c:f>
+                  <c:f>calcs!$T$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6433,10 +6763,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{799AEB25-E673-4523-B4CD-3FFFB15D8157}</c15:txfldGUID>
-                      <c15:f>calcs!$O$70</c15:f>
+                      <c15:txfldGUID>{3F67916D-0137-46B0-BE16-3454C2B61C43}</c15:txfldGUID>
+                      <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6448,15 +6779,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000043-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000048-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="16"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$P$70</c:f>
+                  <c:f>calcs!$U$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6474,10 +6806,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{03D991EF-45C1-46B7-861B-158C1AD8DADB}</c15:txfldGUID>
-                      <c15:f>calcs!$P$70</c15:f>
+                      <c15:txfldGUID>{D0A23ECF-87F0-4A2A-9301-7F5E6F58D078}</c15:txfldGUID>
+                      <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6489,15 +6822,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000044-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000049-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="17"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Q$70</c:f>
+                  <c:f>calcs!$V$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6515,10 +6849,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8C325122-AE80-4B47-BCF9-A370989203CE}</c15:txfldGUID>
-                      <c15:f>calcs!$Q$70</c15:f>
+                      <c15:txfldGUID>{BD48FBC6-BC12-4206-AEE9-2F425BBE2A87}</c15:txfldGUID>
+                      <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6530,15 +6865,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000045-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="18"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$R$70</c:f>
+                  <c:f>calcs!$W$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6556,10 +6892,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{06F760E1-FFF1-49B9-86BF-6A0229DEC519}</c15:txfldGUID>
-                      <c15:f>calcs!$R$70</c15:f>
+                      <c15:txfldGUID>{3129C0FC-9134-4EAF-8D52-BF0C0741F4D3}</c15:txfldGUID>
+                      <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6571,15 +6908,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000046-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="19"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$S$70</c:f>
+                  <c:f>calcs!$X$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6597,10 +6935,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A8F241CA-30AF-4EC8-A9EF-35A0BED1B981}</c15:txfldGUID>
-                      <c15:f>calcs!$S$70</c15:f>
+                      <c15:txfldGUID>{1114A1B4-3860-43D0-91D5-A25889D23883}</c15:txfldGUID>
+                      <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6612,15 +6951,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000047-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="20"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$T$70</c:f>
+                  <c:f>calcs!$Y$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6638,10 +6978,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{21633D48-8F51-4760-9E2F-9CC5C39955EB}</c15:txfldGUID>
-                      <c15:f>calcs!$T$70</c15:f>
+                      <c15:txfldGUID>{120F3A44-DA77-42EB-85EB-59E1CE1CD5FC}</c15:txfldGUID>
+                      <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6653,15 +6994,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000048-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="21"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$U$70</c:f>
+                  <c:f>calcs!$Z$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6679,10 +7021,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF242E7E-7C66-4758-ADB2-693EBF82E7FA}</c15:txfldGUID>
-                      <c15:f>calcs!$U$70</c15:f>
+                      <c15:txfldGUID>{17B1E837-F7F8-40FF-88FB-A1269A40A2E6}</c15:txfldGUID>
+                      <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6694,15 +7037,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000049-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="22"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$V$70</c:f>
+                  <c:f>calcs!$AA$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6720,10 +7064,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B261D3ED-3B6D-43EA-B4B5-7EF6A836FAAC}</c15:txfldGUID>
-                      <c15:f>calcs!$V$70</c15:f>
+                      <c15:txfldGUID>{C33565B8-EC8E-44D1-80C5-E2EBE884BFB2}</c15:txfldGUID>
+                      <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6735,15 +7080,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004A-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{0000004F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="23"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$W$70</c:f>
+                  <c:f>calcs!$AB$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6761,10 +7107,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{995797E8-C714-4350-9C0C-042D5B52B939}</c15:txfldGUID>
-                      <c15:f>calcs!$W$70</c15:f>
+                      <c15:txfldGUID>{E2A22CB5-317C-435D-B659-EDAAE254F0C7}</c15:txfldGUID>
+                      <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6776,15 +7123,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004B-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000050-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="19"/>
+              <c:idx val="24"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$X$70</c:f>
+                  <c:f>calcs!$AC$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6802,10 +7150,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2662FB02-104D-4B35-A3F4-744D492DFE7E}</c15:txfldGUID>
-                      <c15:f>calcs!$X$70</c15:f>
+                      <c15:txfldGUID>{0C115CD8-6BB2-4DDD-AD4D-F55EE03C7017}</c15:txfldGUID>
+                      <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6817,15 +7166,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004C-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000051-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="20"/>
+              <c:idx val="25"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Y$70</c:f>
+                  <c:f>calcs!$AD$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6843,10 +7193,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3835B11E-CEEE-49B4-A518-ECFCCA50BE3D}</c15:txfldGUID>
-                      <c15:f>calcs!$Y$70</c15:f>
+                      <c15:txfldGUID>{DDDA302F-A8C4-4AD4-97F2-7EED5E0C8308}</c15:txfldGUID>
+                      <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6858,15 +7209,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004D-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000052-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="26"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$Z$70</c:f>
+                  <c:f>calcs!$AE$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6884,10 +7236,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74852AD4-8AE1-4D41-95AA-7A5A8842B66A}</c15:txfldGUID>
-                      <c15:f>calcs!$Z$70</c15:f>
+                      <c15:txfldGUID>{30A51DA1-D22E-4E26-92F5-AD5720971993}</c15:txfldGUID>
+                      <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6899,15 +7252,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004E-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000053-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="27"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AA$70</c:f>
+                  <c:f>calcs!$AF$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6925,10 +7279,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A7778912-720C-4959-A9C2-66AE26D4258C}</c15:txfldGUID>
-                      <c15:f>calcs!$AA$70</c15:f>
+                      <c15:txfldGUID>{250133E7-2749-4564-AE48-C69151B25492}</c15:txfldGUID>
+                      <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6940,15 +7295,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004F-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000054-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="28"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AB$70</c:f>
+                  <c:f>calcs!$AG$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -6966,10 +7322,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{436884F2-2D7D-49BF-B42A-97129AC8D0AF}</c15:txfldGUID>
-                      <c15:f>calcs!$AB$70</c15:f>
+                      <c15:txfldGUID>{0CDE6603-2A73-4B56-BB31-0DA341B5EC7B}</c15:txfldGUID>
+                      <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -6981,15 +7338,16 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000050-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
+                  <c16:uniqueId val="{00000055-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="29"/>
+              <c:layout/>
               <c:tx>
                 <c:strRef>
-                  <c:f>calcs!$AC$70</c:f>
+                  <c:f>calcs!$AH$70</c:f>
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
@@ -7007,219 +7365,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C111E1B-0BAB-4B86-8556-1869F12A891F}</c15:txfldGUID>
-                      <c15:f>calcs!$AC$70</c15:f>
+                      <c15:txfldGUID>{DDDC2AFF-D576-4C66-BE07-82D3734C0211}</c15:txfldGUID>
+                      <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
                           <c:v>SUN</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000051-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AD$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>MON</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9C216178-1DE0-47AE-B8D1-916190105649}</c15:txfldGUID>
-                      <c15:f>calcs!$AD$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>MON</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000052-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AE$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>TUE</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6932E28D-B03A-4353-AAFB-53C63F29261E}</c15:txfldGUID>
-                      <c15:f>calcs!$AE$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>TUE</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000053-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AF$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>WED</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{162E6E55-EB72-438D-B269-ECA301CBD83A}</c15:txfldGUID>
-                      <c15:f>calcs!$AF$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>WED</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000054-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AG$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>THU</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CEB3CC9E-B8A9-419A-A163-B210BB9723BD}</c15:txfldGUID>
-                      <c15:f>calcs!$AG$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>THU</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000055-D9F5-4A80-B45A-1EC1F78D8AA5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:strRef>
-                  <c:f>calcs!$AH$70</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>FRI</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4242281D-C6D6-4243-B98A-576F2233B124}</c15:txfldGUID>
-                      <c15:f>calcs!$AH$70</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>FRI</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7437,31 +7591,31 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
@@ -7567,31 +7721,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>13</c:v>
@@ -7718,7 +7872,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="500" noThreeD="1" page="7" val="17"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="WindowOffset" horiz="1" max="500" noThreeD="1" page="7" val="26"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7886,8 +8040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B5:G33" totalsRowShown="0">
-  <autoFilter ref="B5:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Activities" displayName="Activities" ref="B5:G37" totalsRowShown="0">
+  <autoFilter ref="B5:G37"/>
   <sortState ref="C20:F25">
     <sortCondition ref="D19:D25"/>
   </sortState>
@@ -8145,10 +8299,10 @@
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8219,7 +8373,7 @@
     <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f>ROW(B6)-calcs!$D$5</f>
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>18</v>
@@ -8235,7 +8389,7 @@
     <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f>ROW(B7)-calcs!$D$5</f>
-        <v>-21</v>
+        <v>-25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
@@ -8255,7 +8409,7 @@
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f>ROW(B8)-calcs!$D$5</f>
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
@@ -8274,7 +8428,7 @@
     <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <f>ROW(B9)-calcs!$D$5</f>
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>43</v>
@@ -8295,7 +8449,7 @@
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f>ROW(B10)-calcs!$D$5</f>
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>54</v>
@@ -8314,7 +8468,7 @@
     <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f>ROW(B11)-calcs!$D$5</f>
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>55</v>
@@ -8333,7 +8487,7 @@
     <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f>ROW(B12)-calcs!$D$5</f>
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>56</v>
@@ -8352,7 +8506,7 @@
     <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f>ROW(B13)-calcs!$D$5</f>
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>28</v>
@@ -8371,7 +8525,7 @@
     <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f>ROW(B14)-calcs!$D$5</f>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>44</v>
@@ -8389,7 +8543,7 @@
     <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>ROW(B15)-calcs!$D$5</f>
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>45</v>
@@ -8410,7 +8564,7 @@
     <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <f>ROW(B16)-calcs!$D$5</f>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>46</v>
@@ -8431,7 +8585,7 @@
     <row r="17" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f>ROW(B17)-calcs!$D$5</f>
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>47</v>
@@ -8452,7 +8606,7 @@
     <row r="18" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f>ROW(B18)-calcs!$D$5</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -8471,7 +8625,7 @@
     <row r="19" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f>ROW(B19)-calcs!$D$5</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
@@ -8492,7 +8646,7 @@
     <row r="20" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f>ROW(B20)-calcs!$D$5</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
@@ -8513,7 +8667,7 @@
     <row r="21" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f>ROW(B21)-calcs!$D$5</f>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>26</v>
@@ -8534,7 +8688,7 @@
     <row r="22" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f>ROW(B22)-calcs!$D$5</f>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>57</v>
@@ -8553,7 +8707,7 @@
     <row r="23" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f>ROW(B23)-calcs!$D$5</f>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>60</v>
@@ -8572,7 +8726,7 @@
     <row r="24" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f>ROW(B24)-calcs!$D$5</f>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>61</v>
@@ -8593,7 +8747,7 @@
     <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f>ROW(B25)-calcs!$D$5</f>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>63</v>
@@ -8614,7 +8768,7 @@
     <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f>ROW(B26)-calcs!$D$5</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>64</v>
@@ -8635,7 +8789,7 @@
     <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f>ROW(B27)-calcs!$D$5</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>65</v>
@@ -8656,7 +8810,7 @@
     <row r="28" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f>ROW(B28)-calcs!$D$5</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>49</v>
@@ -8675,7 +8829,7 @@
     <row r="29" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f>ROW(B29)-calcs!$D$5</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>50</v>
@@ -8694,7 +8848,7 @@
     <row r="30" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <f>ROW(B30)-calcs!$D$5</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>51</v>
@@ -8713,55 +8867,129 @@
     <row r="31" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f>ROW(B31)-calcs!$D$5</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D31" s="8">
-        <v>43031</v>
+        <f t="shared" ref="D31" si="0">D30+10</f>
+        <v>43052</v>
       </c>
       <c r="E31" s="8">
-        <v>43061</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="5" t="s">
-        <v>30</v>
+        <v>43059</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <f>ROW(B32)-calcs!$D$5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D32" s="8">
-        <v>43045</v>
+        <v>43052</v>
       </c>
       <c r="E32" s="8">
-        <v>43075</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
+        <v>43059</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f>ROW(B33)-calcs!$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43052</v>
+      </c>
+      <c r="E33" s="8">
+        <v>43059</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <f>ROW(B34)-calcs!$D$5</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="8">
+        <v>43031</v>
+      </c>
+      <c r="E34" s="8">
+        <v>43061</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <f>ROW(B35)-calcs!$D$5</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8">
+        <v>43045</v>
+      </c>
+      <c r="E35" s="8">
+        <v>43075</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <f>ROW(B36)-calcs!$D$5</f>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="8">
+        <v>43066</v>
+      </c>
+      <c r="E36" s="8">
+        <v>43072</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <f>ROW(B37)-calcs!$D$5</f>
         <v>5</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D37" s="8">
         <f>E6</f>
         <v>43075</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8835,7 +9063,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43049</v>
+        <v>43052</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8850,7 +9078,7 @@
       </c>
       <c r="D5">
         <f>ROWS(Activities[])</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8877,7 +9105,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)) )</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8896,7 +9124,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8927,93 +9155,93 @@
       <c r="C15" s="2"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Activities[Id],MATCH(1, ((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-22</v>
-      </c>
-      <c r="F15">
+        <v>-26</v>
+      </c>
+      <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
-        <v>-22</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E15)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E16)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E17)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E19">
         <f t="array" ref="E19">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E18)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E20">
         <f t="array" ref="E20">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E19)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E21">
         <f t="array" ref="E21">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E20)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E22">
         <f t="array" ref="E22">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E21)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E23">
+      <c r="E23" t="e">
         <f t="array" ref="E23">INDEX(Activities[Id],MATCH(1, (Activities[Id]&gt;E22)*((Activities[START]&gt;=StartDateWindow)+(Activities[END]&gt;=StartDateWindow)&gt;0)*(Activities[START]&lt;=(StartDateWindow+WindowDays-1)), 0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
@@ -9022,7 +9250,7 @@
       </c>
       <c r="D25" s="1">
         <f>StartDate+WindowOffset</f>
-        <v>43048</v>
+        <v>43057</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
@@ -9030,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
@@ -9065,127 +9293,127 @@
       </c>
       <c r="E31" s="1">
         <f>StartDateWindow</f>
-        <v>43048</v>
+        <v>43057</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>43049</v>
+        <v>43058</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>43050</v>
+        <v>43059</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>43051</v>
+        <v>43060</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>43052</v>
+        <v>43061</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>43053</v>
+        <v>43062</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>43054</v>
+        <v>43063</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>43055</v>
+        <v>43064</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>43056</v>
+        <v>43065</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>43057</v>
+        <v>43066</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>43058</v>
+        <v>43067</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>43059</v>
+        <v>43068</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>43060</v>
+        <v>43069</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>43061</v>
+        <v>43070</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>43062</v>
+        <v>43071</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>43063</v>
+        <v>43072</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>43064</v>
+        <v>43073</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>43065</v>
+        <v>43074</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>43066</v>
+        <v>43075</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>43067</v>
+        <v>43076</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>43068</v>
+        <v>43077</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>43069</v>
+        <v>43078</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>43070</v>
+        <v>43079</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>43071</v>
+        <v>43080</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>43072</v>
+        <v>43081</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>43073</v>
+        <v>43082</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>43074</v>
+        <v>43083</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>43075</v>
+        <v>43084</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>43076</v>
+        <v>43085</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>43077</v>
+        <v>43086</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>43078</v>
+        <v>43087</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
@@ -9195,125 +9423,125 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="e">
         <f t="shared" ref="C32:C40" ca="1" si="2">F15</f>
-        <v>-22</v>
-      </c>
-      <c r="D32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C32,Activities[Id],0))</f>
-        <v>Project Start</v>
-      </c>
-      <c r="E32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="F32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="G32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="H32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="I32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="J32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="K32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="L32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="M32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="N32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="O32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="P32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="Q32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="R32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="S32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="T32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="U32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="V32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="W32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="X32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="Y32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="Z32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AA32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AB32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AC32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AD32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AE32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
-      </c>
-      <c r="AF32">
-        <f ca="1">GridCalc</f>
-        <v>11.3</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF32" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="AG32" t="e">
         <f ca="1">GridCalc</f>
@@ -9338,11 +9566,11 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C33,Activities[Id],0))</f>
-        <v>Report Frame ver1</v>
+        <v>Project Start</v>
       </c>
       <c r="E33">
         <f ca="1">GridCalc</f>
@@ -9352,73 +9580,73 @@
         <f ca="1">GridCalc</f>
         <v>10.3</v>
       </c>
-      <c r="G33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="G33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="H33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="I33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="J33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="K33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="L33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="M33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="N33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="O33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="P33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="Q33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="R33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="S33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="T33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="U33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="V33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
+      </c>
+      <c r="W33">
+        <f ca="1">GridCalc</f>
+        <v>10.3</v>
       </c>
       <c r="X33" t="e">
         <f ca="1">GridCalc</f>
@@ -9479,11 +9707,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C34,Activities[Id],0))</f>
-        <v>Splash Screen</v>
+        <v>ContributionFrame Ver 3</v>
       </c>
       <c r="E34">
         <f ca="1">GridCalc</f>
@@ -9493,9 +9721,9 @@
         <f ca="1">GridCalc</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="G34" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="G34">
+        <f ca="1">GridCalc</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H34" t="e">
         <f ca="1">GridCalc</f>
@@ -9620,11 +9848,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C35,Activities[Id],0))</f>
-        <v>Login Screen</v>
+        <v>DonorFrame Ver 3</v>
       </c>
       <c r="E35">
         <f ca="1">GridCalc</f>
@@ -9634,9 +9862,9 @@
         <f ca="1">GridCalc</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="G35" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="G35">
+        <f ca="1">GridCalc</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H35" t="e">
         <f ca="1">GridCalc</f>
@@ -9761,11 +9989,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C36,Activities[Id],0))</f>
-        <v>ContributionFrame Ver 2</v>
+        <v>FundFrame Ver 3</v>
       </c>
       <c r="E36">
         <f ca="1">GridCalc</f>
@@ -9779,13 +10007,13 @@
         <f ca="1">GridCalc</f>
         <v>7.3000000000000007</v>
       </c>
-      <c r="H36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
-      </c>
-      <c r="I36">
-        <f ca="1">GridCalc</f>
-        <v>7.3000000000000007</v>
+      <c r="H36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
       </c>
       <c r="J36" t="e">
         <f ca="1">GridCalc</f>
@@ -9902,11 +10130,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C37,Activities[Id],0))</f>
-        <v>DonorFrame Ver 2</v>
+        <v>Report Buttons</v>
       </c>
       <c r="E37">
         <f ca="1">GridCalc</f>
@@ -10043,11 +10271,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C38,Activities[Id],0))</f>
-        <v>FundFrame Ver 2</v>
+        <v>Testing</v>
       </c>
       <c r="E38">
         <f ca="1">GridCalc</f>
@@ -10069,61 +10297,61 @@
         <f ca="1">GridCalc</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="J38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
+      <c r="J38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="K38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="L38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="M38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="N38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="O38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="P38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Q38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="R38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="S38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="T38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="U38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="V38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="W38">
+        <f ca="1">GridCalc</f>
+        <v>5.3000000000000007</v>
       </c>
       <c r="X38" t="e">
         <f ca="1">GridCalc</f>
@@ -10184,75 +10412,75 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C39,Activities[Id],0))</f>
-        <v>Add Buttons</v>
-      </c>
-      <c r="E39">
+        <v>Formal Testing</v>
+      </c>
+      <c r="E39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="F39">
+      <c r="O39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="G39">
+      <c r="P39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="H39">
+      <c r="Q39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="I39">
+      <c r="R39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="J39">
+      <c r="S39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="K39">
+      <c r="T39">
         <f ca="1">GridCalc</f>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="L39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
       </c>
       <c r="U39" t="e">
         <f ca="1">GridCalc</f>
@@ -10325,87 +10553,87 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Activities[ACTIVITY],MATCH($C40,Activities[Id],0))</f>
-        <v>Delete Buttons</v>
-      </c>
-      <c r="E40">
+        <v>Project End</v>
+      </c>
+      <c r="E40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V40" t="e">
+        <f ca="1">GridCalc</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W40">
         <f ca="1">GridCalc</f>
         <v>3.3000000000000007</v>
-      </c>
-      <c r="F40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="G40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="H40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="I40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="J40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="K40">
-        <f ca="1">GridCalc</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="L40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" t="e">
-        <f ca="1">GridCalc</f>
-        <v>#N/A</v>
       </c>
       <c r="X40" t="e">
         <f ca="1">GridCalc</f>
@@ -10459,133 +10687,133 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>43048</v>
+        <v>43057</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>43049</v>
+        <v>43058</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>43050</v>
+        <v>43059</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>43051</v>
+        <v>43060</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>43052</v>
+        <v>43061</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>43053</v>
+        <v>43062</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>43054</v>
+        <v>43063</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>43055</v>
+        <v>43064</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>43056</v>
+        <v>43065</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>43057</v>
+        <v>43066</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>43058</v>
+        <v>43067</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>43059</v>
+        <v>43068</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>43060</v>
+        <v>43069</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>43061</v>
+        <v>43070</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>43062</v>
+        <v>43071</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>43063</v>
+        <v>43072</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>43064</v>
+        <v>43073</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>43065</v>
+        <v>43074</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>43066</v>
+        <v>43075</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>43067</v>
+        <v>43076</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>43068</v>
+        <v>43077</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>43069</v>
+        <v>43078</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>43070</v>
+        <v>43079</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>43071</v>
+        <v>43080</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>43072</v>
+        <v>43081</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>43073</v>
+        <v>43082</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>43074</v>
+        <v>43083</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>43075</v>
+        <v>43084</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>43076</v>
+        <v>43085</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>43077</v>
+        <v>43086</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C44">
+      <c r="C44" t="e">
         <f ca="1">C32</f>
-        <v>-22</v>
-      </c>
-      <c r="D44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C44,Activities[Id],0)))</f>
-        <v>PROJECT START</v>
+        <v>#N/A</v>
       </c>
       <c r="E44" t="e">
         <f t="shared" ref="E44:AH44" ca="1" si="5">IF(ISERROR(F32),E32,NA())</f>
@@ -10695,9 +10923,9 @@
         <f t="shared" ca="1" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>11.3</v>
+        <v>#N/A</v>
       </c>
       <c r="AG44" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -10711,87 +10939,87 @@
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C45">
         <f t="shared" ref="C45:C52" ca="1" si="6">C33</f>
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C45,Activities[Id],0)))</f>
-        <v>REPORT FRAME VER1</v>
+        <v>PROJECT START</v>
       </c>
       <c r="E45" t="e">
         <f t="shared" ref="E45:AH45" ca="1" si="7">IF(ISERROR(F33),E33,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W45">
         <f t="shared" ca="1" si="7"/>
         <v>10.3</v>
-      </c>
-      <c r="G45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
       </c>
       <c r="X45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -10841,23 +11069,23 @@
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C46,Activities[Id],0)))</f>
-        <v>SPLASH SCREEN</v>
+        <v>CONTRIBUTIONFRAME VER 3</v>
       </c>
       <c r="E46" t="e">
         <f t="shared" ref="E46:AH46" ca="1" si="8">IF(ISERROR(F34),E34,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G46">
         <f t="shared" ca="1" si="8"/>
         <v>9.3000000000000007</v>
-      </c>
-      <c r="G46" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="H46" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -10971,23 +11199,23 @@
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C47,Activities[Id],0)))</f>
-        <v>LOGIN SCREEN</v>
+        <v>DONORFRAME VER 3</v>
       </c>
       <c r="E47" t="e">
         <f t="shared" ref="E47:AH47" ca="1" si="9">IF(ISERROR(F35),E35,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G47">
         <f t="shared" ca="1" si="9"/>
         <v>8.3000000000000007</v>
-      </c>
-      <c r="G47" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
       </c>
       <c r="H47" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -11101,11 +11329,11 @@
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C48,Activities[Id],0)))</f>
-        <v>CONTRIBUTIONFRAME VER 2</v>
+        <v>FUNDFRAME VER 3</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -11115,17 +11343,17 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="G48" t="e">
+      <c r="G48">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="H48" t="e">
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="J48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11231,11 +11459,11 @@
     <row r="49" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C49,Activities[Id],0)))</f>
-        <v>DONORFRAME VER 2</v>
+        <v>REPORT BUTTONS</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11361,11 +11589,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C50,Activities[Id],0)))</f>
-        <v>FUNDFRAME VER 2</v>
+        <v>TESTING</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11383,65 +11611,65 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W50">
         <f t="shared" ca="1" si="12"/>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
       </c>
       <c r="X50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11491,11 +11719,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C51,Activities[Id],0)))</f>
-        <v>ADD BUTTONS</v>
+        <v>FORMAL TESTING</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11521,45 +11749,45 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T51">
         <f t="shared" ca="1" si="13"/>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="L51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
       </c>
       <c r="U51" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -11621,11 +11849,11 @@
     <row r="52" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Activities[ACTIVITY],MATCH($C52,Activities[Id],0)))</f>
-        <v>DELETE BUTTONS</v>
+        <v>PROJECT END</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11651,57 +11879,57 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W52">
         <f t="shared" ca="1" si="14"/>
         <v>3.3000000000000007</v>
-      </c>
-      <c r="L52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" t="e">
-        <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
       </c>
       <c r="X52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11751,123 +11979,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>43048</v>
+        <v>43057</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>43049</v>
+        <v>43058</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>43050</v>
+        <v>43059</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>43051</v>
+        <v>43060</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>43052</v>
+        <v>43061</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>43053</v>
+        <v>43062</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>43054</v>
+        <v>43063</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>43055</v>
+        <v>43064</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>43056</v>
+        <v>43065</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>43057</v>
+        <v>43066</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>43058</v>
+        <v>43067</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>43059</v>
+        <v>43068</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>43060</v>
+        <v>43069</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>43061</v>
+        <v>43070</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>43062</v>
+        <v>43071</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>43063</v>
+        <v>43072</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>43064</v>
+        <v>43073</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>43065</v>
+        <v>43074</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>43066</v>
+        <v>43075</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>43067</v>
+        <v>43076</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>43068</v>
+        <v>43077</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>43069</v>
+        <v>43078</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>43070</v>
+        <v>43079</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>43071</v>
+        <v>43080</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>43072</v>
+        <v>43081</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>43073</v>
+        <v>43082</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>43074</v>
+        <v>43083</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>43075</v>
+        <v>43084</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>43076</v>
+        <v>43085</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>43077</v>
+        <v>43086</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.3">
@@ -11878,9 +12106,9 @@
         <f t="shared" ref="E56:AH56" ca="1" si="16">IF(E55=$D$3,5,NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="G56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -12052,41 +12280,41 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="R58">
+      <c r="R58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="S58">
+        <v>#N/A</v>
+      </c>
+      <c r="S58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="T58">
+        <v>#N/A</v>
+      </c>
+      <c r="T58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="U58">
+        <v>#N/A</v>
+      </c>
+      <c r="U58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="V58">
+        <v>#N/A</v>
+      </c>
+      <c r="V58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="W58">
+        <v>#N/A</v>
+      </c>
+      <c r="W58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="X58">
+        <v>#N/A</v>
+      </c>
+      <c r="X58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y58">
+        <v>#N/A</v>
+      </c>
+      <c r="Y58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z58">
+        <v>#N/A</v>
+      </c>
+      <c r="Z58" t="e">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AA58" t="e">
         <f t="shared" si="17"/>
@@ -12178,41 +12406,41 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="R59">
+      <c r="R59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="S59">
+        <v>#N/A</v>
+      </c>
+      <c r="S59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="T59">
+        <v>#N/A</v>
+      </c>
+      <c r="T59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="U59">
+        <v>#N/A</v>
+      </c>
+      <c r="U59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="V59">
+        <v>#N/A</v>
+      </c>
+      <c r="V59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="W59">
+        <v>#N/A</v>
+      </c>
+      <c r="W59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="X59">
+        <v>#N/A</v>
+      </c>
+      <c r="X59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Y59">
+        <v>#N/A</v>
+      </c>
+      <c r="Y59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Z59">
+        <v>#N/A</v>
+      </c>
+      <c r="Z59" t="e">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="AA59" t="e">
         <f t="shared" si="18"/>
@@ -12307,41 +12535,41 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="R61" t="e">
+      <c r="R61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="T61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="U61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="V61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="W61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Y61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z61" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Z61">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="AA61">
         <f t="shared" si="19"/>
@@ -12433,41 +12661,41 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="R62" t="e">
+      <c r="R62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S62" t="e">
+        <v>13</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T62" t="e">
+        <v>13</v>
+      </c>
+      <c r="T62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U62" t="e">
+        <v>13</v>
+      </c>
+      <c r="U62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" t="e">
+        <v>13</v>
+      </c>
+      <c r="V62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W62" t="e">
+        <v>13</v>
+      </c>
+      <c r="W62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X62" t="e">
+        <v>13</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" t="e">
+        <v>13</v>
+      </c>
+      <c r="Y62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z62" t="e">
+        <v>13</v>
+      </c>
+      <c r="Z62">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="AA62">
         <f t="shared" si="20"/>
@@ -12692,9 +12920,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="S66" t="e">
+      <c r="S66">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="T66" t="e">
         <f t="shared" si="21"/>
@@ -12728,9 +12956,9 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" t="e">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="AC66" t="e">
         <f t="shared" si="21"/>
@@ -12884,123 +13112,123 @@
       </c>
       <c r="E70" t="str">
         <f>LEFT(UPPER(TEXT(E55,"ddd")),$D70)</f>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" ref="F70:AH70" si="23">LEFT(UPPER(TEXT(F55,"ddd")),$D70)</f>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>SAT</v>
+        <v>MON</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>SUN</v>
+        <v>TUE</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>MON</v>
+        <v>WED</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>WED</v>
+        <v>FRI</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>THU</v>
+        <v>SAT</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>FRI</v>
+        <v>SUN</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.3">
@@ -13127,123 +13355,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.3">
       <c r="E72" t="str">
         <f>TEXT(E55,"dd")</f>
-        <v>09</v>
+        <v>18</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" ref="F72:AH72" si="24">TEXT(F55,"dd")</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>01</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>02</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>03</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>04</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>05</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>06</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>07</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>08</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>09</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>10</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>11</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>13</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>14</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>15</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>16</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
